--- a/xml files/finaliteratio.xlsx
+++ b/xml files/finaliteratio.xlsx
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -592,7 +592,7 @@
         <v>9.5</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>

--- a/xml files/finaliteratio.xlsx
+++ b/xml files/finaliteratio.xlsx
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -438,7 +438,7 @@
         <v>2.5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -493,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -595,6 +595,446 @@
         <v>1</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>10.5</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>11.5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>12.5</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13.5</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>14.5</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>15.5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>16.5</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>17.5</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>18.5</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>19.5</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>20.5</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>21.5</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>22.5</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>23.5</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>24.5</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>25.5</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>26.5</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>27.5</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>28.5</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>29.5</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
     </row>
